--- a/data/trans_orig/P74A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Dificultad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4809</v>
+        <v>5497</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002573412250982006</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01297942924258118</v>
+        <v>0.01483445669656965</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>4000</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10423</v>
+        <v>10693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007855475733329155</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002321184045755254</v>
+        <v>0.00232312727467145</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02047101158352882</v>
+        <v>0.02100152152687047</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -785,19 +785,19 @@
         <v>4953</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1574</v>
+        <v>1177</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12913</v>
+        <v>12419</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00563056852369114</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001789189307215881</v>
+        <v>0.001337847651276622</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01467872653969974</v>
+        <v>0.01411810250660755</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>3840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8792</v>
+        <v>9084</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01036429628853761</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002649613006541058</v>
+        <v>0.002610186619093131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02372873005978196</v>
+        <v>0.02451586924022102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -835,19 +835,19 @@
         <v>12236</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6270</v>
+        <v>7069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20910</v>
+        <v>20848</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02403273374713237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01231389518294198</v>
+        <v>0.01388503279673133</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04106966216728503</v>
+        <v>0.04094684186764082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -856,19 +856,19 @@
         <v>16076</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9061</v>
+        <v>9901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25039</v>
+        <v>25814</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01827532375996571</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01030047886122727</v>
+        <v>0.01125526542956146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02846372376097439</v>
+        <v>0.02934428823602245</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>3418</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10077</v>
+        <v>9913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009225587603678888</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002452338294903276</v>
+        <v>0.002457578259407104</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02719525194605412</v>
+        <v>0.02675248949309874</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -919,19 +919,19 @@
         <v>3418</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10127</v>
+        <v>10278</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003885995774411111</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001035378096141344</v>
+        <v>0.00103653902265863</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01151157304309267</v>
+        <v>0.01168348529288493</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +948,19 @@
         <v>255574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>235951</v>
+        <v>236765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>272972</v>
+        <v>273139</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6897370948439348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6367783518123299</v>
+        <v>0.6389749136614905</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7366887520174589</v>
+        <v>0.7371394955553433</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>255574</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>226797</v>
+        <v>230027</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>280748</v>
+        <v>282783</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2905305928642742</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2578167618436698</v>
+        <v>0.2614890182289464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3191480717753835</v>
+        <v>0.3214606030070018</v>
       </c>
     </row>
     <row r="8">
@@ -1011,19 +1011,19 @@
         <v>10644</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5390</v>
+        <v>5471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18324</v>
+        <v>18533</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02872458719775263</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01454761049744075</v>
+        <v>0.0147637656106512</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04945292491316411</v>
+        <v>0.05001671405845769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>179</v>
@@ -1032,19 +1032,19 @@
         <v>178740</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>154677</v>
+        <v>157476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201348</v>
+        <v>201279</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3510606573366114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3037994081606712</v>
+        <v>0.3092974118044137</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3954649099763035</v>
+        <v>0.3953296735240845</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -1053,19 +1053,19 @@
         <v>189383</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>166179</v>
+        <v>165556</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>214728</v>
+        <v>214324</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2152864757548994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1889086889508155</v>
+        <v>0.1881995016388999</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2440981120651164</v>
+        <v>0.2436378898964669</v>
       </c>
     </row>
     <row r="9">
@@ -1129,19 +1129,19 @@
         <v>15378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9227</v>
+        <v>8926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26266</v>
+        <v>24149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04150109771265989</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02490045326321801</v>
+        <v>0.02408816851366578</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07088726313110347</v>
+        <v>0.06517341714790199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1150,19 +1150,19 @@
         <v>30331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21203</v>
+        <v>20800</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42723</v>
+        <v>43249</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05957184912254775</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0416442070776139</v>
+        <v>0.04085371285421617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08391194895008021</v>
+        <v>0.08494565909406177</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -1171,19 +1171,19 @@
         <v>45708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33893</v>
+        <v>34990</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60967</v>
+        <v>61257</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05196009942854939</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03852878427016025</v>
+        <v>0.03977573633310023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.069305633799121</v>
+        <v>0.06963511850684612</v>
       </c>
     </row>
     <row r="11">
@@ -1200,19 +1200,19 @@
         <v>80731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64531</v>
+        <v>65746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98055</v>
+        <v>98046</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2178739241024543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1741532194940078</v>
+        <v>0.1774339866966987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2646274051227526</v>
+        <v>0.2646047077285602</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1221,19 +1221,19 @@
         <v>283836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>260357</v>
+        <v>261400</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306464</v>
+        <v>305392</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5574792840603794</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5113633332772057</v>
+        <v>0.5134125710009746</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6019228515914319</v>
+        <v>0.5998167455832603</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>344</v>
@@ -1242,19 +1242,19 @@
         <v>364567</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>335158</v>
+        <v>333576</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>396942</v>
+        <v>393076</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4144309438942091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3809998983455899</v>
+        <v>0.3792013221211447</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.451233700920568</v>
+        <v>0.4468391728143442</v>
       </c>
     </row>
     <row r="12">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5227</v>
+        <v>4653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001261612506593496</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007094990636348556</v>
+        <v>0.006316257978506769</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1367,19 +1367,19 @@
         <v>2835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7650</v>
+        <v>7620</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004034009784763599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001230884435079164</v>
+        <v>0.001222910147370502</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01088558809076043</v>
+        <v>0.01084208653361699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1388,19 +1388,19 @@
         <v>3764</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>932</v>
+        <v>973</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9320</v>
+        <v>9305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002615111872195859</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00064728958030174</v>
+        <v>0.0006757726725031478</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006474301230190068</v>
+        <v>0.006464202522722565</v>
       </c>
     </row>
     <row r="14">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6100</v>
+        <v>5354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002368235795349055</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008279332647373077</v>
+        <v>0.007267504244762354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1438,19 +1438,19 @@
         <v>5261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1956</v>
+        <v>1763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11992</v>
+        <v>11827</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007486735821720041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002782620239012366</v>
+        <v>0.002508617129267503</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0170638756886406</v>
+        <v>0.0168291461156949</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1459,19 +1459,19 @@
         <v>7006</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2902</v>
+        <v>2602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13597</v>
+        <v>13427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004867115228350627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002016107209839091</v>
+        <v>0.001807772934199524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009445766060977311</v>
+        <v>0.009327379675796927</v>
       </c>
     </row>
     <row r="15">
@@ -1488,19 +1488,19 @@
         <v>6552</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2247</v>
+        <v>2687</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14347</v>
+        <v>15511</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00889326161041294</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003049360958893608</v>
+        <v>0.003646716294243208</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01947421983760683</v>
+        <v>0.02105457752550094</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1522,19 +1522,19 @@
         <v>6552</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2635</v>
+        <v>2669</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14688</v>
+        <v>14009</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004551523129204108</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001830353903472784</v>
+        <v>0.001853815063271807</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01020363657802166</v>
+        <v>0.009731990709350486</v>
       </c>
     </row>
     <row r="16">
@@ -1551,19 +1551,19 @@
         <v>435957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>411405</v>
+        <v>407364</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>466074</v>
+        <v>463513</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5917480401977472</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5584220831152042</v>
+        <v>0.5529365882044912</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6326265600136486</v>
+        <v>0.6291505092079697</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>435957</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>401851</v>
+        <v>403746</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>474953</v>
+        <v>470792</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3028534422587607</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2791605751067707</v>
+        <v>0.2804769900060889</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3299436115403018</v>
+        <v>0.3270529204248067</v>
       </c>
     </row>
     <row r="17">
@@ -1614,19 +1614,19 @@
         <v>34184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23634</v>
+        <v>23757</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47437</v>
+        <v>46731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04640000281242965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03207964748018622</v>
+        <v>0.03224716481385544</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06438840384685701</v>
+        <v>0.06343041842496065</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>173</v>
@@ -1635,19 +1635,19 @@
         <v>174250</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151327</v>
+        <v>153261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198552</v>
+        <v>195551</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2479472137606219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2153295947507369</v>
+        <v>0.2180810533093356</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2825268646994908</v>
+        <v>0.2782576743893754</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>208</v>
@@ -1656,19 +1656,19 @@
         <v>208434</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>184327</v>
+        <v>182948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234089</v>
+        <v>237254</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1447964427113172</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1280491813547881</v>
+        <v>0.1270917469720969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1626181440772316</v>
+        <v>0.1648172884112986</v>
       </c>
     </row>
     <row r="18">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9119</v>
+        <v>7423</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00247864560050627</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01237715167830614</v>
+        <v>0.01007563874857612</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5306</v>
+        <v>6135</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001508217077151911</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.007549586088009744</v>
+        <v>0.00873018240325339</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9803</v>
+        <v>9404</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002004877139880198</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.006809950047225295</v>
+        <v>0.006532591971995972</v>
       </c>
     </row>
     <row r="19">
@@ -1756,19 +1756,19 @@
         <v>43969</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31388</v>
+        <v>31669</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57960</v>
+        <v>58875</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05968129743929187</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04260457745353069</v>
+        <v>0.04298559161044317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07867282033361858</v>
+        <v>0.07991383580891417</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1777,19 +1777,19 @@
         <v>22427</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14809</v>
+        <v>14506</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33556</v>
+        <v>33217</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03191160257474997</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02107222810054169</v>
+        <v>0.02064171917441879</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04774856551071881</v>
+        <v>0.0472657438973941</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -1798,19 +1798,19 @@
         <v>66395</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51182</v>
+        <v>51652</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83187</v>
+        <v>83170</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04612398201480944</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03555520603697751</v>
+        <v>0.03588204919259118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05778871650010108</v>
+        <v>0.05777739112167386</v>
       </c>
     </row>
     <row r="20">
@@ -1827,19 +1827,19 @@
         <v>211565</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186119</v>
+        <v>188011</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236527</v>
+        <v>236300</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2871689040376695</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2526296807464659</v>
+        <v>0.2551976148443639</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3210509280816737</v>
+        <v>0.3207430596979254</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>479</v>
@@ -1848,19 +1848,19 @@
         <v>496938</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>471653</v>
+        <v>471637</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>520847</v>
+        <v>518683</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7071122209809926</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6711334697142342</v>
+        <v>0.6711108407893747</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7411330937763585</v>
+        <v>0.7380536673189714</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>676</v>
@@ -1869,19 +1869,19 @@
         <v>708503</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>670264</v>
+        <v>670560</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>748844</v>
+        <v>744341</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4921875056454819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4656234344955049</v>
+        <v>0.4658287366535221</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5202116911450969</v>
+        <v>0.5170831215311658</v>
       </c>
     </row>
     <row r="21">
@@ -1973,19 +1973,19 @@
         <v>6544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2786</v>
+        <v>2741</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14451</v>
+        <v>15661</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008941018256033597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003806491294742438</v>
+        <v>0.003744945265304968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01974579643200998</v>
+        <v>0.02139849825098711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -1997,16 +1997,16 @@
         <v>1018</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9465</v>
+        <v>10302</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006375372082083293</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001584645660505155</v>
+        <v>0.001585272563502417</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01473385246135636</v>
+        <v>0.01603642335563683</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2015,19 +2015,19 @@
         <v>10639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4939</v>
+        <v>5591</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18912</v>
+        <v>20359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007741697407795032</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003593796174702977</v>
+        <v>0.004068268155552556</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01376139886988872</v>
+        <v>0.01481449244582524</v>
       </c>
     </row>
     <row r="23">
@@ -2044,19 +2044,19 @@
         <v>3102</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8557</v>
+        <v>9307</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004238444749363728</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001040924785672174</v>
+        <v>0.001046848559926797</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01169247705157917</v>
+        <v>0.01271684403620679</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         <v>3102</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8895</v>
+        <v>9332</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002257167984223291</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0005602812574914907</v>
+        <v>0.0005588695955548507</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.006472734489464734</v>
+        <v>0.006790331783166048</v>
       </c>
     </row>
     <row r="24">
@@ -2107,19 +2107,19 @@
         <v>6215</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1830</v>
+        <v>1557</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16267</v>
+        <v>15998</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.008491844568264273</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002500762598395228</v>
+        <v>0.002127577838804624</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0222274129761026</v>
+        <v>0.02185893333056445</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2141,19 +2141,19 @@
         <v>6215</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16653</v>
+        <v>15340</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.004522300235095427</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001332628211580099</v>
+        <v>0.00133309815989853</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01211776087031111</v>
+        <v>0.0111621878588401</v>
       </c>
     </row>
     <row r="25">
@@ -2170,19 +2170,19 @@
         <v>397191</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>371864</v>
+        <v>367989</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>428620</v>
+        <v>424733</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.542712329923984</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5081064733235584</v>
+        <v>0.5028114632020045</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5856565507343485</v>
+        <v>0.5803450291263769</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2191,19 +2191,19 @@
         <v>3765</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10448</v>
+        <v>11434</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005861442438894649</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001365431894010989</v>
+        <v>0.001379098522738304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01626383479105616</v>
+        <v>0.0177990887481129</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>397</v>
@@ -2212,19 +2212,19 @@
         <v>400956</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>368331</v>
+        <v>369921</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>434483</v>
+        <v>435299</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2917593854792309</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2680189113388827</v>
+        <v>0.2691763330374204</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.316155021797288</v>
+        <v>0.316749008993043</v>
       </c>
     </row>
     <row r="26">
@@ -2241,19 +2241,19 @@
         <v>29351</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20479</v>
+        <v>19522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40741</v>
+        <v>41465</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04010403724241823</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02798159478552</v>
+        <v>0.02667455382001268</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05566739412819979</v>
+        <v>0.05665622090339699</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>124</v>
@@ -2262,19 +2262,19 @@
         <v>124649</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>105277</v>
+        <v>105414</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>146330</v>
+        <v>143172</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1940345379178202</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1638782358256305</v>
+        <v>0.1640919303504267</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2277839453282704</v>
+        <v>0.2228678120400539</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>154</v>
@@ -2283,19 +2283,19 @@
         <v>154000</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>133181</v>
+        <v>133148</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>179488</v>
+        <v>177800</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.112059422405901</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09691016183898558</v>
+        <v>0.09688621269632888</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1306057689538443</v>
+        <v>0.1293778014585764</v>
       </c>
     </row>
     <row r="27">
@@ -2359,19 +2359,19 @@
         <v>15605</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9180</v>
+        <v>8778</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26752</v>
+        <v>26000</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02132243602772446</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01254401215107889</v>
+        <v>0.0119936986358739</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03655377237446374</v>
+        <v>0.03552510360384656</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2380,19 +2380,19 @@
         <v>7609</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3777</v>
+        <v>3722</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14878</v>
+        <v>14177</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01184421997617022</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005879273668171046</v>
+        <v>0.00579415629522671</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02316034920925518</v>
+        <v>0.02206926657035601</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -2401,19 +2401,19 @@
         <v>23214</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15040</v>
+        <v>14483</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>34608</v>
+        <v>35220</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01689180867538145</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01094401598173016</v>
+        <v>0.01053883807067267</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0251825226580621</v>
+        <v>0.02562798008929545</v>
       </c>
     </row>
     <row r="29">
@@ -2430,19 +2430,19 @@
         <v>273856</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>248581</v>
+        <v>247284</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>300251</v>
+        <v>300652</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3741898892322117</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3396545101870961</v>
+        <v>0.3378828072377155</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4102558046688395</v>
+        <v>0.4108039109007671</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>487</v>
@@ -2451,19 +2451,19 @@
         <v>502289</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>482063</v>
+        <v>484183</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>523026</v>
+        <v>522014</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7818844275850316</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7504006046551714</v>
+        <v>0.7537004487115135</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8141643853213472</v>
+        <v>0.8125899058387016</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>750</v>
@@ -2472,19 +2472,19 @@
         <v>776145</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>741302</v>
+        <v>736337</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>814913</v>
+        <v>811794</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5647682178123729</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5394149540549176</v>
+        <v>0.5358016577420861</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5929784175880541</v>
+        <v>0.5907084767444706</v>
       </c>
     </row>
     <row r="30">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5691</v>
+        <v>5399</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003643869022446615</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02096078537824526</v>
+        <v>0.01988362136641629</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4350</v>
+        <v>3839</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003426011581430301</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02014633398027154</v>
+        <v>0.01778025544233568</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6240</v>
+        <v>5332</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003547356954362921</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01280139487337569</v>
+        <v>0.01093928684842849</v>
       </c>
     </row>
     <row r="32">
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6303</v>
+        <v>5941</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004712676407041007</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02919056320481835</v>
+        <v>0.02751160727835391</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5160</v>
+        <v>5495</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002087742076336504</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01058674369620481</v>
+        <v>0.01127249782938977</v>
       </c>
     </row>
     <row r="33">
@@ -2757,19 +2757,19 @@
         <v>114820</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>98394</v>
+        <v>98702</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>130406</v>
+        <v>130733</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4229009354106406</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3624008758947018</v>
+        <v>0.3635363672937821</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4803084878483655</v>
+        <v>0.4815113641021083</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5498</v>
+        <v>4561</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004266591127074603</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02545873007174801</v>
+        <v>0.02112028090936685</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>116</v>
@@ -2799,19 +2799,19 @@
         <v>115741</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>98220</v>
+        <v>97197</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>136036</v>
+        <v>136237</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2374435732513086</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2014985050323883</v>
+        <v>0.1994003341259309</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2790794702642327</v>
+        <v>0.2794917139121826</v>
       </c>
     </row>
     <row r="35">
@@ -2828,19 +2828,19 @@
         <v>13183</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7162</v>
+        <v>7081</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23558</v>
+        <v>21660</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04855610087165053</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02637915381751904</v>
+        <v>0.02608222516872821</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08676817624624332</v>
+        <v>0.07977745631900673</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>29</v>
@@ -2849,19 +2849,19 @@
         <v>29558</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>20479</v>
+        <v>21051</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>41435</v>
+        <v>42304</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1368792517955041</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09483816491406707</v>
+        <v>0.09748483253162282</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1918811042038838</v>
+        <v>0.1959056318370696</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>41</v>
@@ -2870,19 +2870,19 @@
         <v>42741</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30776</v>
+        <v>30991</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>56217</v>
+        <v>55853</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08768375203455456</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06313674798246968</v>
+        <v>0.06357824823436509</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1153301905536916</v>
+        <v>0.114581972232063</v>
       </c>
     </row>
     <row r="36">
@@ -2946,19 +2946,19 @@
         <v>5627</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13492</v>
+        <v>12136</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02072517341987265</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006469260682320081</v>
+        <v>0.006439357578123486</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04969184798620593</v>
+        <v>0.04470061324281984</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>6062</v>
+        <v>6071</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.005289018483612871</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0280731947615957</v>
+        <v>0.02811451033862918</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6</v>
@@ -2988,19 +2988,19 @@
         <v>6769</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2694</v>
+        <v>2298</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15318</v>
+        <v>14654</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01388687021935363</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.005526829096450563</v>
+        <v>0.004715190823286697</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03142450443068778</v>
+        <v>0.03006217827260376</v>
       </c>
     </row>
     <row r="38">
@@ -3017,19 +3017,19 @@
         <v>136886</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>121310</v>
+        <v>119367</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>154136</v>
+        <v>153028</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5041739212753896</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4468066192382977</v>
+        <v>0.4396486536501524</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5677084185069039</v>
+        <v>0.5636297759041018</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>178</v>
@@ -3038,19 +3038,19 @@
         <v>182562</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>170924</v>
+        <v>170103</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>192183</v>
+        <v>191589</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8454264506053372</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7915312754904886</v>
+        <v>0.7877272909478202</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.889978920712304</v>
+        <v>0.8872298108172071</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>309</v>
@@ -3059,19 +3059,19 @@
         <v>319448</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>299008</v>
+        <v>295001</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>340260</v>
+        <v>338880</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6553507054640837</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6134177997880145</v>
+        <v>0.6051973067838848</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6980466499454538</v>
+        <v>0.6952145342435816</v>
       </c>
     </row>
     <row r="39">
@@ -3163,19 +3163,19 @@
         <v>9416</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4624</v>
+        <v>4711</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>17861</v>
+        <v>18698</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004461190706349977</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.002190872136373614</v>
+        <v>0.002232134591172036</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.008462369353206014</v>
+        <v>0.008858960542275772</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>11</v>
@@ -3184,19 +3184,19 @@
         <v>11670</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>6062</v>
+        <v>6096</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>19538</v>
+        <v>20971</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005636940774633235</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00292820286610484</v>
+        <v>0.002944704289663288</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009437683256091751</v>
+        <v>0.010129483087227</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>20</v>
@@ -3205,19 +3205,19 @@
         <v>21086</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>13492</v>
+        <v>13170</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>33427</v>
+        <v>32902</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00504338918064542</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003226950030647005</v>
+        <v>0.003149953289393259</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.007995250451140747</v>
+        <v>0.007869628448276173</v>
       </c>
     </row>
     <row r="41">
@@ -3234,19 +3234,19 @@
         <v>8687</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4264</v>
+        <v>4440</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16747</v>
+        <v>16886</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004115862103809747</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002020236654791991</v>
+        <v>0.002103525866417229</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.007934483417898257</v>
+        <v>0.008000305733499405</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>18</v>
@@ -3255,19 +3255,19 @@
         <v>18515</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>11124</v>
+        <v>10842</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28687</v>
+        <v>28399</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.008943408524888218</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005373385228764884</v>
+        <v>0.005236891962052868</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01385681730758875</v>
+        <v>0.01371762970445864</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>27</v>
@@ -3276,19 +3276,19 @@
         <v>27202</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>17783</v>
+        <v>18782</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>40010</v>
+        <v>39404</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00650632776208194</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004253463100282467</v>
+        <v>0.004492307708162415</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.009569669674829371</v>
+        <v>0.009424876974119192</v>
       </c>
     </row>
     <row r="42">
@@ -3305,19 +3305,19 @@
         <v>16185</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8116</v>
+        <v>8377</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>28055</v>
+        <v>26913</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.007668414743812047</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.003845145732117054</v>
+        <v>0.003969134030414004</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0132921793133708</v>
+        <v>0.01275096562432798</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -3339,19 +3339,19 @@
         <v>16185</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>8303</v>
+        <v>8812</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>26306</v>
+        <v>26986</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.003871230729499513</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.001986009981884012</v>
+        <v>0.00210774900923521</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.006291854991137875</v>
+        <v>0.006454625129291323</v>
       </c>
     </row>
     <row r="43">
@@ -3368,19 +3368,19 @@
         <v>1203542</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1159581</v>
+        <v>1158070</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1253062</v>
+        <v>1248516</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.5702277578031125</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.549399443375616</v>
+        <v>0.5486836009171272</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.5936899421902899</v>
+        <v>0.5915361184397223</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>4</v>
@@ -3389,19 +3389,19 @@
         <v>4687</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1786</v>
+        <v>1801</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>12208</v>
+        <v>13139</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.002263852977222941</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0008627112961456308</v>
+        <v>0.0008700296949723865</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.005896657574749587</v>
+        <v>0.006346460891612362</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1202</v>
@@ -3410,19 +3410,19 @@
         <v>1208229</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1149899</v>
+        <v>1151295</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1271678</v>
+        <v>1271521</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2889879537286534</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2750363642373324</v>
+        <v>0.2753703376064262</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3041638080471679</v>
+        <v>0.3041262979854268</v>
       </c>
     </row>
     <row r="44">
@@ -3439,19 +3439,19 @@
         <v>87362</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>69198</v>
+        <v>70801</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>105002</v>
+        <v>105716</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04139116730536247</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03278538756046774</v>
+        <v>0.03354501440957591</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04974923655249791</v>
+        <v>0.05008746227025107</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>505</v>
@@ -3460,19 +3460,19 @@
         <v>507197</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>471795</v>
+        <v>469852</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>547094</v>
+        <v>547788</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2449917140137556</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2278912549375942</v>
+        <v>0.2269528747934569</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2642631190818645</v>
+        <v>0.264598129624591</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>593</v>
@@ -3481,19 +3481,19 @@
         <v>594559</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>550148</v>
+        <v>547700</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>639600</v>
+        <v>635400</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1422084505502803</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1315860187874384</v>
+        <v>0.1310005035255381</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1529815813556059</v>
+        <v>0.1519770446506233</v>
       </c>
     </row>
     <row r="45">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>11944</v>
+        <v>8614</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0008651842255495498</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.005659001424367705</v>
+        <v>0.004081223371288884</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>5316</v>
+        <v>4269</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0005119792154948809</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.002567600407707998</v>
+        <v>0.002062262463134172</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>2</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>10483</v>
+        <v>10566</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0006902870058814375</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.002507241968267726</v>
+        <v>0.002527208992460815</v>
       </c>
     </row>
     <row r="46">
@@ -3581,19 +3581,19 @@
         <v>80579</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>65061</v>
+        <v>64872</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>100392</v>
+        <v>102330</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03817749303483915</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03082540693997028</v>
+        <v>0.03073595446865323</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04756485102972404</v>
+        <v>0.0484829889654351</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>61</v>
@@ -3602,19 +3602,19 @@
         <v>61508</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>47983</v>
+        <v>46319</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>78112</v>
+        <v>77803</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02971026022794522</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02317739698374747</v>
+        <v>0.02237357404155059</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03773059732738915</v>
+        <v>0.03758122406160409</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>138</v>
@@ -3623,19 +3623,19 @@
         <v>142087</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>119508</v>
+        <v>120118</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>166920</v>
+        <v>166414</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0339847567087628</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02858430407540921</v>
+        <v>0.02873010287891255</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03992445144785944</v>
+        <v>0.03980350874590134</v>
       </c>
     </row>
     <row r="47">
@@ -3652,19 +3652,19 @@
         <v>703037</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>657460</v>
+        <v>663001</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>745173</v>
+        <v>748045</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3330929300771646</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3114989881543989</v>
+        <v>0.3141239120258807</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3530564720258564</v>
+        <v>0.3544172000621679</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1410</v>
@@ -3673,19 +3673,19 @@
         <v>1465626</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1425540</v>
+        <v>1421765</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1502750</v>
+        <v>1504967</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.7079418442660599</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.6885793308806338</v>
+        <v>0.6867557117748937</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.7258738565910656</v>
+        <v>0.726945014167951</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2079</v>
@@ -3694,19 +3694,19 @@
         <v>2168663</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2100110</v>
+        <v>2101980</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2226371</v>
+        <v>2232018</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.5187076043341952</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5023108058386602</v>
+        <v>0.5027580372074356</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5325102688715999</v>
+        <v>0.5338610955929555</v>
       </c>
     </row>
     <row r="48">
@@ -4038,19 +4038,19 @@
         <v>4458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13220</v>
+        <v>13177</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006484716661576051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00140260082461611</v>
+        <v>0.001386608228951262</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01923083622070427</v>
+        <v>0.01916734954690032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6478</v>
+        <v>7515</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00299751105823347</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009356344455872476</v>
+        <v>0.01085410711782609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4080,19 +4080,19 @@
         <v>6533</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2306</v>
+        <v>2256</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16082</v>
+        <v>15283</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004734949896532057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001671593723529744</v>
+        <v>0.001635043103970172</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01165541984513195</v>
+        <v>0.0110760901111067</v>
       </c>
     </row>
     <row r="5">
@@ -4109,19 +4109,19 @@
         <v>6177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13183</v>
+        <v>13306</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008984672596288046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003115342102014294</v>
+        <v>0.00311075789377538</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01917656397595582</v>
+        <v>0.01935486137139104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -4130,19 +4130,19 @@
         <v>25326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16958</v>
+        <v>16892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38486</v>
+        <v>38449</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03658014456750486</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02449324604632865</v>
+        <v>0.02439834858131954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05558856745661565</v>
+        <v>0.05553556215827823</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -4151,19 +4151,19 @@
         <v>31502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21270</v>
+        <v>21107</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47010</v>
+        <v>45268</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02283118616998015</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01541537938329747</v>
+        <v>0.01529749678153232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03407017162530373</v>
+        <v>0.03280765304193569</v>
       </c>
     </row>
     <row r="6">
@@ -4180,19 +4180,19 @@
         <v>6823</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13951</v>
+        <v>13592</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009924378624535077</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004255760002802274</v>
+        <v>0.004261118852992419</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02029419405695919</v>
+        <v>0.01977155654494801</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -4201,19 +4201,19 @@
         <v>4915</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1933</v>
+        <v>1942</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10852</v>
+        <v>10924</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007098860442529198</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002791770036881979</v>
+        <v>0.002805376375134938</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01567448437651852</v>
+        <v>0.01577795416116185</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -4222,19 +4222,19 @@
         <v>11737</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6745</v>
+        <v>6757</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20521</v>
+        <v>19716</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008506625164812927</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004888353355153687</v>
+        <v>0.004897287783541436</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01487277707300181</v>
+        <v>0.01428889211449753</v>
       </c>
     </row>
     <row r="7">
@@ -4251,19 +4251,19 @@
         <v>314278</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>286246</v>
+        <v>287768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>341018</v>
+        <v>341211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4571598585787228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4163835608900606</v>
+        <v>0.4185983206871745</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4960573959832271</v>
+        <v>0.4963382820863947</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5514</v>
+        <v>6584</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001579504308454333</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007964927087319077</v>
+        <v>0.009509462108468501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>295</v>
@@ -4293,19 +4293,19 @@
         <v>315371</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>281372</v>
+        <v>287070</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>346418</v>
+        <v>352039</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2285644003857831</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2039234445111482</v>
+        <v>0.2080531294462113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2510653538443555</v>
+        <v>0.2551390758810979</v>
       </c>
     </row>
     <row r="8">
@@ -4322,19 +4322,19 @@
         <v>26600</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17186</v>
+        <v>17310</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41834</v>
+        <v>40996</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03869296745334703</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02499996801113507</v>
+        <v>0.02517922948414238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06085340389518943</v>
+        <v>0.05963437072762728</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>132</v>
@@ -4343,19 +4343,19 @@
         <v>140421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>122119</v>
+        <v>118205</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>165433</v>
+        <v>161529</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2028224311660947</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1763868633439437</v>
+        <v>0.1707340296158452</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2389491963068139</v>
+        <v>0.2333105152749096</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>154</v>
@@ -4364,19 +4364,19 @@
         <v>167021</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>143494</v>
+        <v>143119</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>191691</v>
+        <v>193132</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.12104781354954</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1039972000627977</v>
+        <v>0.1037248661732049</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1389277405677843</v>
+        <v>0.1399719224546998</v>
       </c>
     </row>
     <row r="9">
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6330</v>
+        <v>8138</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003011789987428438</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009208027830408168</v>
+        <v>0.01183742709501667</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7510</v>
+        <v>6750</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00307257696425521</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01084674989436494</v>
+        <v>0.009749627947423111</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -4435,19 +4435,19 @@
         <v>4198</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10894</v>
+        <v>12510</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003042290922531614</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0008195385712035388</v>
+        <v>0.0008170086291579679</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007895285535942145</v>
+        <v>0.009066658344203947</v>
       </c>
     </row>
     <row r="10">
@@ -4464,19 +4464,19 @@
         <v>132794</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112102</v>
+        <v>113119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154695</v>
+        <v>154227</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1931674074043475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1630679686203711</v>
+        <v>0.1645476860870259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2250249609628374</v>
+        <v>0.2243445316196791</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -4485,19 +4485,19 @@
         <v>186914</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>162517</v>
+        <v>164162</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209803</v>
+        <v>212143</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2699769196617834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2347376851914776</v>
+        <v>0.2371141152979961</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.303037404316904</v>
+        <v>0.306417119513995</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>296</v>
@@ -4506,19 +4506,19 @@
         <v>319709</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>288920</v>
+        <v>285436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>355316</v>
+        <v>351049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2317079315588383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2093937160518795</v>
+        <v>0.2068687794479476</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2575143818999817</v>
+        <v>0.2544218612011402</v>
       </c>
     </row>
     <row r="11">
@@ -4535,19 +4535,19 @@
         <v>194258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167960</v>
+        <v>171355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>220093</v>
+        <v>219581</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2825742086937552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2443206282638258</v>
+        <v>0.2492589191279872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3201558944715645</v>
+        <v>0.3194109677194303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>304</v>
@@ -4556,19 +4556,19 @@
         <v>329462</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>302806</v>
+        <v>303576</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>356420</v>
+        <v>357525</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4758720518311448</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4373700483657951</v>
+        <v>0.438482421865715</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5148094861598773</v>
+        <v>0.5164050003705185</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>482</v>
@@ -4577,19 +4577,19 @@
         <v>523720</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>488795</v>
+        <v>487342</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>563127</v>
+        <v>559883</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3795648023519819</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3542531459583317</v>
+        <v>0.3532001862077048</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4081245619717842</v>
+        <v>0.4057735025254698</v>
       </c>
     </row>
     <row r="12">
@@ -4728,19 +4728,19 @@
         <v>2880</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7881</v>
+        <v>8410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004582052642385382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00134592050757687</v>
+        <v>0.001362369852717984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01253585740183794</v>
+        <v>0.01337776481298269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -4749,19 +4749,19 @@
         <v>17515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10119</v>
+        <v>9787</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28514</v>
+        <v>28917</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02449817582865947</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01415290882615996</v>
+        <v>0.01368924402769995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03988260676600819</v>
+        <v>0.0404462901573662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -4770,19 +4770,19 @@
         <v>20396</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12155</v>
+        <v>12411</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31749</v>
+        <v>30780</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01517980681060741</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009046652244073129</v>
+        <v>0.009237261977987112</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02363008969571581</v>
+        <v>0.02290853411130349</v>
       </c>
     </row>
     <row r="15">
@@ -4799,19 +4799,19 @@
         <v>3920</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9812</v>
+        <v>9166</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006235245355718509</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001450899802330846</v>
+        <v>0.001459117854363649</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0156085777663011</v>
+        <v>0.0145809790360729</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -4820,19 +4820,19 @@
         <v>4771</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13875</v>
+        <v>14180</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.006673024834953814</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.001328838193659469</v>
+        <v>0.00131807816408</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01940682126319314</v>
+        <v>0.01983288146975072</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -4841,19 +4841,19 @@
         <v>8691</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3806</v>
+        <v>3728</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>19534</v>
+        <v>18541</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.006468196279823331</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002833032143754201</v>
+        <v>0.002774869767763561</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01453893502736854</v>
+        <v>0.01379931853420801</v>
       </c>
     </row>
     <row r="16">
@@ -4870,19 +4870,19 @@
         <v>298597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>273804</v>
+        <v>272745</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>322463</v>
+        <v>323842</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4749851681962838</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.435546846515883</v>
+        <v>0.4338617172122374</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5129498579833817</v>
+        <v>0.5151430873122225</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10567</v>
+        <v>11235</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004120088993323305</v>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01477958296945871</v>
+        <v>0.01571377672567805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>285</v>
@@ -4912,19 +4912,19 @@
         <v>301542</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>270988</v>
+        <v>267892</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>333634</v>
+        <v>331484</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2244287567340127</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2016881556252649</v>
+        <v>0.1993843927252376</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2483137052527266</v>
+        <v>0.2467134055573351</v>
       </c>
     </row>
     <row r="17">
@@ -4941,19 +4941,19 @@
         <v>32770</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22409</v>
+        <v>22851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47104</v>
+        <v>46813</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05212745981511956</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03564650498859087</v>
+        <v>0.03634995784063454</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07492938877232691</v>
+        <v>0.07446626780207069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>151</v>
@@ -4962,19 +4962,19 @@
         <v>159744</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139127</v>
+        <v>138463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>184572</v>
+        <v>183993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2234326898307165</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1945949733008634</v>
+        <v>0.1936664718429808</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2581588371321251</v>
+        <v>0.2573483742285332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -4983,19 +4983,19 @@
         <v>192514</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>168526</v>
+        <v>169481</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>221542</v>
+        <v>219542</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1432822843990129</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1254292123922074</v>
+        <v>0.1261397558150831</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1648872985702154</v>
+        <v>0.1633988073262243</v>
       </c>
     </row>
     <row r="18">
@@ -5012,19 +5012,19 @@
         <v>3785</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9530</v>
+        <v>10547</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006021460510087811</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001508258722516169</v>
+        <v>0.001515798343689397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01515926750753797</v>
+        <v>0.01677767935581395</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4775</v>
+        <v>5677</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001655616902007811</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.006679399081315313</v>
+        <v>0.007940427028902932</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -5054,19 +5054,19 @@
         <v>4969</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10847</v>
+        <v>10987</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.003698310725232963</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001404897175922155</v>
+        <v>0.001406092202094795</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008073358332663367</v>
+        <v>0.008177487676678682</v>
       </c>
     </row>
     <row r="19">
@@ -5083,19 +5083,19 @@
         <v>87278</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68818</v>
+        <v>70909</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>106110</v>
+        <v>106902</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1388360706625517</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1094710171859994</v>
+        <v>0.1127971552373381</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1687924327743654</v>
+        <v>0.170051649902511</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -5104,19 +5104,19 @@
         <v>90874</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73365</v>
+        <v>72818</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109400</v>
+        <v>108863</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1271040346593613</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1026151410565159</v>
+        <v>0.1018492585448255</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1530169026549091</v>
+        <v>0.1522655005813021</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -5125,19 +5125,19 @@
         <v>178152</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>153443</v>
+        <v>154654</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>205067</v>
+        <v>206154</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1325932275001721</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1142029555745396</v>
+        <v>0.1151045838345421</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1526252580146228</v>
+        <v>0.1534345332181934</v>
       </c>
     </row>
     <row r="20">
@@ -5154,19 +5154,19 @@
         <v>199414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>176664</v>
+        <v>176094</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223673</v>
+        <v>224216</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3172125428178532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2810235697506244</v>
+        <v>0.2801168210509983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3558030302838027</v>
+        <v>0.3566661420040738</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>401</v>
@@ -5175,19 +5175,19 @@
         <v>437922</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>411071</v>
+        <v>409865</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>464723</v>
+        <v>463579</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6125163689509778</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.574960115025091</v>
+        <v>0.573273403191054</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6500027797467347</v>
+        <v>0.6484025044896788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>588</v>
@@ -5196,19 +5196,19 @@
         <v>637335</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>599779</v>
+        <v>601064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>678451</v>
+        <v>674698</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4743494175511387</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4463974651533987</v>
+        <v>0.4473542004626739</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.504950538530605</v>
+        <v>0.5021572914919955</v>
       </c>
     </row>
     <row r="21">
@@ -5347,19 +5347,19 @@
         <v>7517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3177</v>
+        <v>3172</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17947</v>
+        <v>18551</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01320304774030098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005580599126915635</v>
+        <v>0.005571201032538437</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03152235979372438</v>
+        <v>0.03258232306348532</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -5368,19 +5368,19 @@
         <v>10463</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5157</v>
+        <v>5211</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20174</v>
+        <v>19347</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01831310263873734</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00902716353550486</v>
+        <v>0.009121728628050272</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03531086920593222</v>
+        <v>0.03386267868391661</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -5389,19 +5389,19 @@
         <v>17980</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10318</v>
+        <v>10494</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29658</v>
+        <v>29493</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01576251756273313</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009045369869376131</v>
+        <v>0.009199884574845201</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02600038485976654</v>
+        <v>0.02585548889711551</v>
       </c>
     </row>
     <row r="24">
@@ -5418,19 +5418,19 @@
         <v>7157</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2893</v>
+        <v>2925</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16344</v>
+        <v>16729</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01257114625215819</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005081788705558843</v>
+        <v>0.005138091513158405</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02870703765456831</v>
+        <v>0.02938278241084477</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -5452,19 +5452,19 @@
         <v>7157</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16501</v>
+        <v>15438</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006274644530498531</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002525421729768856</v>
+        <v>0.002522682488908178</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01446638463745958</v>
+        <v>0.01353434617127307</v>
       </c>
     </row>
     <row r="25">
@@ -5481,19 +5481,19 @@
         <v>236563</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>214184</v>
+        <v>211796</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>264752</v>
+        <v>260793</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4155016514269453</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3761951121625982</v>
+        <v>0.3720001268939744</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4650125331935462</v>
+        <v>0.4580600377282584</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -5515,19 +5515,19 @@
         <v>236563</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>209732</v>
+        <v>210507</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>267937</v>
+        <v>262661</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2073896136632412</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.183867844260045</v>
+        <v>0.18454716591993</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2348941756637897</v>
+        <v>0.2302696797273113</v>
       </c>
     </row>
     <row r="26">
@@ -5544,19 +5544,19 @@
         <v>45723</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33921</v>
+        <v>33507</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59206</v>
+        <v>60157</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08030892054039736</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05957969572054091</v>
+        <v>0.05885135847622301</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1039893084967254</v>
+        <v>0.1056608268129042</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>149</v>
@@ -5565,19 +5565,19 @@
         <v>158600</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137135</v>
+        <v>135318</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>181028</v>
+        <v>180075</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2776003178866327</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2400296893760344</v>
+        <v>0.2368486228532133</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3168557602502439</v>
+        <v>0.3151880715403673</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>191</v>
@@ -5586,19 +5586,19 @@
         <v>204324</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>179462</v>
+        <v>181496</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>232247</v>
+        <v>233584</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1791261324430864</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1573300517701648</v>
+        <v>0.1591134320323136</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2036057184318675</v>
+        <v>0.2047780132740109</v>
       </c>
     </row>
     <row r="27">
@@ -5662,19 +5662,19 @@
         <v>39242</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27705</v>
+        <v>26832</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54529</v>
+        <v>54029</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06892545791025502</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04866081713683248</v>
+        <v>0.04712813247581077</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09577609352390526</v>
+        <v>0.09489674719847591</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -5683,19 +5683,19 @@
         <v>22098</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14164</v>
+        <v>14217</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32370</v>
+        <v>33188</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03867781859314269</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02479212481031639</v>
+        <v>0.02488460615027972</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05665687394902676</v>
+        <v>0.05809026499807245</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>57</v>
@@ -5704,19 +5704,19 @@
         <v>61340</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>44831</v>
+        <v>46970</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>78114</v>
+        <v>79573</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05377534278024917</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03930272619987266</v>
+        <v>0.0411773259617429</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06848129237397885</v>
+        <v>0.06975968445526376</v>
       </c>
     </row>
     <row r="29">
@@ -5733,19 +5733,19 @@
         <v>233140</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>207860</v>
+        <v>211861</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>258933</v>
+        <v>260109</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4094897761299431</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3650869815520456</v>
+        <v>0.3721150643199968</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4547918781746459</v>
+        <v>0.456858558705963</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>353</v>
@@ -5754,19 +5754,19 @@
         <v>380165</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>356610</v>
+        <v>357160</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>402027</v>
+        <v>403946</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6654087608814873</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6241800708149503</v>
+        <v>0.6251429579822969</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7036739356624331</v>
+        <v>0.7070323478982848</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>570</v>
@@ -5775,19 +5775,19 @@
         <v>613305</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>576750</v>
+        <v>580178</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>649127</v>
+        <v>647005</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5376717490201915</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5056239444894115</v>
+        <v>0.5086293404745907</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5690760866744414</v>
+        <v>0.5672156988337557</v>
       </c>
     </row>
     <row r="30">
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9106</v>
+        <v>10025</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.005890841071590595</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02874445039210904</v>
+        <v>0.03164376816603343</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9181</v>
+        <v>9311</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.006138400232893537</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03034907358036489</v>
+        <v>0.03078015170602475</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12091</v>
+        <v>12798</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006011764373920443</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01952277503066521</v>
+        <v>0.02066460421678607</v>
       </c>
     </row>
     <row r="32">
@@ -5963,19 +5963,19 @@
         <v>3654</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11548</v>
+        <v>10680</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01207812425689633</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003131847866721284</v>
+        <v>0.003105450840924879</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03817406376752846</v>
+        <v>0.0353026417989847</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -5984,19 +5984,19 @@
         <v>3654</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10480</v>
+        <v>10865</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005899707623047193</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001529027480877133</v>
+        <v>0.001527661716998355</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01692121134156737</v>
+        <v>0.01754406726443759</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>4018</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12319</v>
+        <v>16897</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01268200747083905</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002813155449541375</v>
+        <v>0.002837766498681348</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03888627316767557</v>
+        <v>0.05333625917313167</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -6047,19 +6047,19 @@
         <v>4018</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>13845</v>
+        <v>12883</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.006487325700734721</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.001443953651129301</v>
+        <v>0.001445065620375988</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02235573276064885</v>
+        <v>0.02080174377298958</v>
       </c>
     </row>
     <row r="34">
@@ -6076,19 +6076,19 @@
         <v>108369</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>90050</v>
+        <v>90468</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>125458</v>
+        <v>126652</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3420697511956023</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2842443332988034</v>
+        <v>0.2855657106009734</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3960112590532344</v>
+        <v>0.399781425452594</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6110,19 +6110,19 @@
         <v>108369</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>88849</v>
+        <v>88169</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>132082</v>
+        <v>130669</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1749815944737292</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1434628437775519</v>
+        <v>0.1423656477833938</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2132705779041367</v>
+        <v>0.2109891609483077</v>
       </c>
     </row>
     <row r="35">
@@ -6139,19 +6139,19 @@
         <v>19336</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11561</v>
+        <v>11426</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29896</v>
+        <v>31489</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06103347532318395</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0364930412205703</v>
+        <v>0.03606640986759044</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09436670762536856</v>
+        <v>0.09939608018196475</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>67</v>
@@ -6160,19 +6160,19 @@
         <v>77811</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>62880</v>
+        <v>62911</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>94018</v>
+        <v>95573</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2572157317973158</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2078574078251881</v>
+        <v>0.207960546703261</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3107907554365598</v>
+        <v>0.3159293560664968</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>83</v>
@@ -6181,19 +6181,19 @@
         <v>97147</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>78936</v>
+        <v>79169</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>116823</v>
+        <v>119616</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1568610996636254</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1274571579207674</v>
+        <v>0.1278329669001207</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1886318215639007</v>
+        <v>0.1931424644228974</v>
       </c>
     </row>
     <row r="36">
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5399</v>
+        <v>4768</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003041352912215497</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01704107349317113</v>
+        <v>0.01505132943864774</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4819</v>
+        <v>4599</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001555766857714571</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007780928499953927</v>
+        <v>0.007426737694672787</v>
       </c>
     </row>
     <row r="37">
@@ -6273,19 +6273,19 @@
         <v>21444</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13496</v>
+        <v>12946</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33424</v>
+        <v>32432</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06768947621029207</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04260192528315477</v>
+        <v>0.04086448003009969</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1055036286390216</v>
+        <v>0.1023724974224255</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -6294,19 +6294,19 @@
         <v>15055</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8121</v>
+        <v>8059</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24544</v>
+        <v>24443</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04976751629966301</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02684624919882752</v>
+        <v>0.02663960355373128</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08113224791071813</v>
+        <v>0.08079818731018255</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>32</v>
@@ -6315,19 +6315,19 @@
         <v>36500</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25333</v>
+        <v>24948</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50134</v>
+        <v>51506</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05893527553676343</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04090409747492857</v>
+        <v>0.04028388879292215</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08095036656516935</v>
+        <v>0.08316608140691131</v>
       </c>
     </row>
     <row r="38">
@@ -6344,19 +6344,19 @@
         <v>160808</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>143082</v>
+        <v>142021</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>179276</v>
+        <v>179679</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5075930958162764</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4516414340660816</v>
+        <v>0.4482921832709572</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5658903625323527</v>
+        <v>0.5671627081552724</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>188</v>
@@ -6365,19 +6365,19 @@
         <v>204136</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>185667</v>
+        <v>185271</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>221007</v>
+        <v>221203</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6748002274132313</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6137479916836208</v>
+        <v>0.6124413864665172</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7305710603467002</v>
+        <v>0.7312168972711731</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>335</v>
@@ -6386,19 +6386,19 @@
         <v>364943</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>337437</v>
+        <v>336719</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>389199</v>
+        <v>389976</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5892674657704651</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5448538170956797</v>
+        <v>0.5436954858581717</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6284342748574756</v>
+        <v>0.6296877484708908</v>
       </c>
     </row>
     <row r="39">
@@ -6490,19 +6490,19 @@
         <v>6324</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1868</v>
+        <v>1385</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>17164</v>
+        <v>16034</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002871704031616757</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.000848043700679326</v>
+        <v>0.0006291206642789079</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007793839777254187</v>
+        <v>0.007280602619337545</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -6511,19 +6511,19 @@
         <v>3932</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12703</v>
+        <v>12548</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001723806722672552</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0004370327971610711</v>
+        <v>0.0004373045023618266</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.005568886043839831</v>
+        <v>0.00550059666092374</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>7</v>
@@ -6532,19 +6532,19 @@
         <v>10256</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3315</v>
+        <v>4197</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20880</v>
+        <v>23441</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002287657260974035</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0007393310633768338</v>
+        <v>0.0009361241216169739</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004657142134328766</v>
+        <v>0.005228407097589164</v>
       </c>
     </row>
     <row r="41">
@@ -6561,19 +6561,19 @@
         <v>16574</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9227</v>
+        <v>8960</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>27153</v>
+        <v>27777</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007526001402749458</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004189790976140211</v>
+        <v>0.004068595713204062</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01232963386208447</v>
+        <v>0.01261319995557395</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>48</v>
@@ -6582,19 +6582,19 @@
         <v>56957</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>41757</v>
+        <v>43108</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>74617</v>
+        <v>75787</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02496892806259913</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01830549530637135</v>
+        <v>0.01889760330712075</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03271053055132422</v>
+        <v>0.0332235130592098</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>63</v>
@@ -6603,19 +6603,19 @@
         <v>73531</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>55744</v>
+        <v>56412</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>92597</v>
+        <v>93027</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01640091112408431</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01243349178690782</v>
+        <v>0.01258258801614725</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02065345688041767</v>
+        <v>0.02074943775363934</v>
       </c>
     </row>
     <row r="42">
@@ -6632,19 +6632,19 @@
         <v>21917</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13717</v>
+        <v>13568</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>34714</v>
+        <v>34617</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.009952257049001984</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.00622852894833404</v>
+        <v>0.006161009114723255</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01576305477805829</v>
+        <v>0.01571908790177941</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>8</v>
@@ -6653,19 +6653,19 @@
         <v>9686</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>4832</v>
+        <v>3954</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>19320</v>
+        <v>20185</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.004246011578846637</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.002118088163125829</v>
+        <v>0.001733404718649839</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.008469528947998598</v>
+        <v>0.008848732273870208</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>28</v>
@@ -6674,19 +6674,19 @@
         <v>31603</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>20477</v>
+        <v>21041</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>45065</v>
+        <v>46925</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.007048936156644287</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.004567268565729862</v>
+        <v>0.004693047925046571</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01005149131542396</v>
+        <v>0.01046650488558819</v>
       </c>
     </row>
     <row r="43">
@@ -6703,19 +6703,19 @@
         <v>957806</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>908319</v>
+        <v>905424</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1004542</v>
+        <v>1003370</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4349221128491734</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4124510716035827</v>
+        <v>0.4111363916333037</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4561440960329681</v>
+        <v>0.4556120408160458</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -6724,19 +6724,19 @@
         <v>4039</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>12597</v>
+        <v>11170</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.001770712600674298</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0004541410827954422</v>
+        <v>0.0004526928295293251</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.005522422648224817</v>
+        <v>0.004896650696506795</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>901</v>
@@ -6745,19 +6745,19 @@
         <v>961845</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>906906</v>
+        <v>906853</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1019033</v>
+        <v>1020396</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2145359558790944</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.202282055501366</v>
+        <v>0.2022702898108479</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2272915358776417</v>
+        <v>0.2275954889014681</v>
       </c>
     </row>
     <row r="44">
@@ -6774,19 +6774,19 @@
         <v>124428</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>105079</v>
+        <v>104067</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>149513</v>
+        <v>150686</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05650060449534383</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04771447600632995</v>
+        <v>0.04725492453592434</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06789096999706151</v>
+        <v>0.06842387109795926</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>499</v>
@@ -6795,19 +6795,19 @@
         <v>536577</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>495712</v>
+        <v>496930</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>578510</v>
+        <v>578047</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2352242212875175</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2173099561634996</v>
+        <v>0.2178439456005583</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2536070492953154</v>
+        <v>0.2534040281629218</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>609</v>
@@ -6816,19 +6816,19 @@
         <v>661005</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>612089</v>
+        <v>612743</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>708955</v>
+        <v>711605</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1474346544419057</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1365241248501975</v>
+        <v>0.136670053399057</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1581298487737</v>
+        <v>0.1587207806587319</v>
       </c>
     </row>
     <row r="45">
@@ -6845,19 +6845,19 @@
         <v>6819</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2900</v>
+        <v>2944</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>13189</v>
+        <v>13714</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.003096537304363101</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001316812962048425</v>
+        <v>0.001336997433772645</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.005988763761995539</v>
+        <v>0.006227092377063081</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>3</v>
@@ -6866,19 +6866,19 @@
         <v>3311</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>8814</v>
+        <v>9097</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.001451449424776297</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0004317450769273524</v>
+        <v>0.0004360736614424827</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.003864065401715472</v>
+        <v>0.003987801781387663</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>10</v>
@@ -6887,19 +6887,19 @@
         <v>10130</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>4984</v>
+        <v>5059</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>18098</v>
+        <v>19170</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.002259521435426294</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.001111559726321907</v>
+        <v>0.001128433069652682</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.004036776198753406</v>
+        <v>0.004275856069797294</v>
       </c>
     </row>
     <row r="46">
@@ -6916,19 +6916,19 @@
         <v>280759</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>247733</v>
+        <v>250034</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>311764</v>
+        <v>315906</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1274875787448083</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1124911601839537</v>
+        <v>0.1135357564431802</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1415663657626712</v>
+        <v>0.1434471246934975</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>290</v>
@@ -6937,19 +6937,19 @@
         <v>314941</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>281484</v>
+        <v>281782</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>350365</v>
+        <v>350822</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1380636690538366</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1233966788074611</v>
+        <v>0.1235276176122507</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1535928423114217</v>
+        <v>0.153793320971212</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>550</v>
@@ -6958,19 +6958,19 @@
         <v>595700</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>548188</v>
+        <v>552628</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>646765</v>
+        <v>648129</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1328686623512287</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1222713582466847</v>
+        <v>0.1232616940851293</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1442586353823136</v>
+        <v>0.1445628581288965</v>
       </c>
     </row>
     <row r="47">
@@ -6987,19 +6987,19 @@
         <v>787619</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>744885</v>
+        <v>739344</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>837032</v>
+        <v>833492</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3576432041229431</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3382384117616112</v>
+        <v>0.3357227257828161</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3800810613581191</v>
+        <v>0.3784734688199221</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1246</v>
@@ -7008,19 +7008,19 @@
         <v>1351685</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1302919</v>
+        <v>1303162</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1402303</v>
+        <v>1396511</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.592551201269077</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5711731238056885</v>
+        <v>0.5712797456095952</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.6147412071980281</v>
+        <v>0.6122017846480218</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1975</v>
@@ -7029,19 +7029,19 @@
         <v>2139303</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2073094</v>
+        <v>2063508</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2208943</v>
+        <v>2204906</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4771637013506423</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4623959812779366</v>
+        <v>0.4602577932876973</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4926964785745605</v>
+        <v>0.4917960930736384</v>
       </c>
     </row>
     <row r="48">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5391</v>
+        <v>4674</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001295638000873513</v>
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007585587956328665</v>
+        <v>0.006576096082938967</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -7394,19 +7394,19 @@
         <v>3230</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9037</v>
+        <v>10323</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004477802143434531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001369683625111837</v>
+        <v>0.001368366116699188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01252941652704805</v>
+        <v>0.01431252366101028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -7415,19 +7415,19 @@
         <v>4150</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9542</v>
+        <v>9932</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002898427726903056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006945551035770754</v>
+        <v>0.0006913733342537781</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006663767697284684</v>
+        <v>0.006936128427533307</v>
       </c>
     </row>
     <row r="5">
@@ -7444,19 +7444,19 @@
         <v>7609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3027</v>
+        <v>3500</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15392</v>
+        <v>15144</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01070662970658477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004259738045170477</v>
+        <v>0.00492518065935469</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02165632787850776</v>
+        <v>0.02130759353737953</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -7465,19 +7465,19 @@
         <v>9091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4825</v>
+        <v>4855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16238</v>
+        <v>16259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0126047889618267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006689045498110422</v>
+        <v>0.006730618191251252</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02251334293074188</v>
+        <v>0.02254232968954056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -7486,19 +7486,19 @@
         <v>16701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9703</v>
+        <v>10123</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27763</v>
+        <v>27416</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01166269294417162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006775889554598694</v>
+        <v>0.007069165589189212</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01938820235915861</v>
+        <v>0.0191454016345406</v>
       </c>
     </row>
     <row r="6">
@@ -7515,19 +7515,19 @@
         <v>6744</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13385</v>
+        <v>13648</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009488835047076982</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004098455486037102</v>
+        <v>0.004092483833469973</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01883297431560504</v>
+        <v>0.01920332880526388</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5687</v>
+        <v>6495</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002588777026929045</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.007884918350079026</v>
+        <v>0.009005070749477517</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -7557,19 +7557,19 @@
         <v>8611</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3848</v>
+        <v>3910</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15958</v>
+        <v>15269</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006013419698200522</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002687034110322103</v>
+        <v>0.00273060704409958</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.011144102612147</v>
+        <v>0.01066274027606063</v>
       </c>
     </row>
     <row r="7">
@@ -7586,19 +7586,19 @@
         <v>317137</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>288874</v>
+        <v>288826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>345233</v>
+        <v>343472</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.446219927967613</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4064532715002818</v>
+        <v>0.4063847210898865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4857513915606274</v>
+        <v>0.4832737965110697</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6392</v>
+        <v>7205</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002896439448897694</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008862944265433059</v>
+        <v>0.009989305523200603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>303</v>
@@ -7628,19 +7628,19 @@
         <v>319227</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283620</v>
+        <v>288474</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>349798</v>
+        <v>353626</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2229271307162694</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1980616175294433</v>
+        <v>0.2014517036681791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2442765502376602</v>
+        <v>0.2469496328109874</v>
       </c>
     </row>
     <row r="8">
@@ -7657,19 +7657,19 @@
         <v>25023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16116</v>
+        <v>16575</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35165</v>
+        <v>36019</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03520754800913013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02267561153877301</v>
+        <v>0.023320909838014</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04947769023282816</v>
+        <v>0.05067985902721427</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>163</v>
@@ -7678,19 +7678,19 @@
         <v>186501</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>161649</v>
+        <v>162257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>212375</v>
+        <v>210220</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2585783825212556</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2241207614106139</v>
+        <v>0.2249647285311724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2944518214550838</v>
+        <v>0.2914628242044883</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>189</v>
@@ -7699,19 +7699,19 @@
         <v>211524</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>185254</v>
+        <v>185630</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>241851</v>
+        <v>239482</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.147714779758196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1293695188259308</v>
+        <v>0.1296322531020741</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1688929458010887</v>
+        <v>0.1672384668734624</v>
       </c>
     </row>
     <row r="9">
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006274134910188413</v>
+        <v>0.00627365153051601</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -7752,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6686</v>
+        <v>6018</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.002650886049919752</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009270188670364322</v>
+        <v>0.008343155762100134</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -7770,19 +7770,19 @@
         <v>2800</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8394</v>
+        <v>7663</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001955309979881055</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00058844332039567</v>
+        <v>0.0005896007136640493</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.005862042521036054</v>
+        <v>0.005351475712873671</v>
       </c>
     </row>
     <row r="10">
@@ -7799,19 +7799,19 @@
         <v>193784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170057</v>
+        <v>170674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>219320</v>
+        <v>215655</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2726589665177831</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.239274218103481</v>
+        <v>0.2401421028929416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3085884464632784</v>
+        <v>0.3034318861501945</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>206</v>
@@ -7820,19 +7820,19 @@
         <v>211618</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>186885</v>
+        <v>188924</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>236084</v>
+        <v>236092</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2934016992378513</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.259109804098101</v>
+        <v>0.2619376884447019</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3273224644564248</v>
+        <v>0.3273345931676973</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>388</v>
@@ -7841,19 +7841,19 @@
         <v>405402</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>371394</v>
+        <v>370797</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>439486</v>
+        <v>440169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2831066484738576</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2593575202877548</v>
+        <v>0.2589403942224496</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.306908284128885</v>
+        <v>0.30738542210678</v>
       </c>
     </row>
     <row r="11">
@@ -7870,19 +7870,19 @@
         <v>158614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>136074</v>
+        <v>135394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182239</v>
+        <v>183631</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2231730332336416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1914590502546933</v>
+        <v>0.1905025822464477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2564141107375856</v>
+        <v>0.2583734357216264</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>298</v>
@@ -7891,19 +7891,19 @@
         <v>304948</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>279204</v>
+        <v>276488</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332027</v>
+        <v>329712</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4228012246098855</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3871076667256423</v>
+        <v>0.3833418494583118</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4603449919752414</v>
+        <v>0.4571350996005125</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>441</v>
@@ -7912,19 +7912,19 @@
         <v>463562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>428147</v>
+        <v>428014</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>500286</v>
+        <v>500712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3237215907025208</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2989900165359086</v>
+        <v>0.2988972616116594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3493675906912723</v>
+        <v>0.3496646943635185</v>
       </c>
     </row>
     <row r="12">
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7877</v>
+        <v>8240</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002613463223883619</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01362879959825609</v>
+        <v>0.01425655719510567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -8037,19 +8037,19 @@
         <v>3737</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>922</v>
+        <v>974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8562</v>
+        <v>9481</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005887975403985959</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001452069357527294</v>
+        <v>0.001534922570152388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01349021645127436</v>
+        <v>0.01493812049924047</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -8058,19 +8058,19 @@
         <v>5248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1849</v>
+        <v>1855</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12030</v>
+        <v>11135</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004327286987545697</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001524907294592997</v>
+        <v>0.001529633217651225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009919930992913438</v>
+        <v>0.009181834300556392</v>
       </c>
     </row>
     <row r="14">
@@ -8087,19 +8087,19 @@
         <v>3674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11581</v>
+        <v>10840</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006357272705881004</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001734955282805192</v>
+        <v>0.001732514655892005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02003749217967988</v>
+        <v>0.01875430129422305</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -8108,19 +8108,19 @@
         <v>10921</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5253</v>
+        <v>6113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19022</v>
+        <v>21010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01720639042641172</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008276099183416563</v>
+        <v>0.009630685681469176</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02996976805063172</v>
+        <v>0.0331021871741596</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -8129,19 +8129,19 @@
         <v>14595</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7802</v>
+        <v>7720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23664</v>
+        <v>24447</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01203551567507704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006434002715115673</v>
+        <v>0.006366168498246779</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01951398483809403</v>
+        <v>0.02015964589519391</v>
       </c>
     </row>
     <row r="15">
@@ -8158,19 +8158,19 @@
         <v>4035</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9630</v>
+        <v>9930</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006981991263354708</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001804424007989003</v>
+        <v>0.001777044110891373</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01666228887801923</v>
+        <v>0.01718055031032192</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6793</v>
+        <v>6758</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003031465538304031</v>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01070328091866933</v>
+        <v>0.01064743205727979</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -8200,19 +8200,19 @@
         <v>5960</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2091</v>
+        <v>2826</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12152</v>
+        <v>13428</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004914353553013802</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001724188539309649</v>
+        <v>0.002329977305246931</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01002121269782707</v>
+        <v>0.01107329513002816</v>
       </c>
     </row>
     <row r="16">
@@ -8229,19 +8229,19 @@
         <v>287771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>264608</v>
+        <v>266356</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>312161</v>
+        <v>313665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4978898819707289</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.457814430568437</v>
+        <v>0.4608392159193395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5400882853457214</v>
+        <v>0.5426909955807593</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>287771</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>261263</v>
+        <v>260939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>322291</v>
+        <v>322394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2373028190813571</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2154442509531893</v>
+        <v>0.2151768620851022</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2657687157737308</v>
+        <v>0.2658539576626263</v>
       </c>
     </row>
     <row r="17">
@@ -8292,19 +8292,19 @@
         <v>26903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17903</v>
+        <v>17501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37494</v>
+        <v>37257</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04654627299938575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03097428303464638</v>
+        <v>0.0302795243990431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06487045354674371</v>
+        <v>0.06445994453174173</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>135</v>
@@ -8313,19 +8313,19 @@
         <v>152600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>131527</v>
+        <v>133178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177760</v>
+        <v>177250</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.240432216659588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2072302991673456</v>
+        <v>0.2098304417645228</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2800735368214609</v>
+        <v>0.2792693064047168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>163</v>
@@ -8334,19 +8334,19 @@
         <v>179503</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>152479</v>
+        <v>153810</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>205781</v>
+        <v>204213</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1480228653614628</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1257375677807002</v>
+        <v>0.1268356863026961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1696922750606302</v>
+        <v>0.1683989122447723</v>
       </c>
     </row>
     <row r="18">
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4535</v>
+        <v>4511</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00155393827703665</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.007846331141921818</v>
+        <v>0.007805243655765163</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5717</v>
+        <v>5025</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001582360795314261</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009007845947422611</v>
+        <v>0.007916696639216866</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6702</v>
+        <v>6622</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.001568814137796395</v>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.005526779337600539</v>
+        <v>0.005460681252773737</v>
       </c>
     </row>
     <row r="19">
@@ -8434,19 +8434,19 @@
         <v>83623</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67504</v>
+        <v>66559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102833</v>
+        <v>102340</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1446814188149086</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1167929492553128</v>
+        <v>0.1151583733118783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1779169652013644</v>
+        <v>0.1770639256908774</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -8455,19 +8455,19 @@
         <v>68423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53401</v>
+        <v>54609</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84396</v>
+        <v>85690</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1078057640172132</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0841368902982802</v>
+        <v>0.08603943544239645</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.132971490158426</v>
+        <v>0.1350106441026449</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>145</v>
@@ -8476,19 +8476,19 @@
         <v>152047</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129241</v>
+        <v>129846</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174659</v>
+        <v>176484</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1253813307355555</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1065754165667502</v>
+        <v>0.1070741783097945</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.14402810741987</v>
+        <v>0.1455330456758482</v>
       </c>
     </row>
     <row r="20">
@@ -8505,19 +8505,19 @@
         <v>169566</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148008</v>
+        <v>146324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193222</v>
+        <v>189789</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2933757607448207</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2560775025256042</v>
+        <v>0.2531636409916543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3343055765636349</v>
+        <v>0.3283658360982369</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>383</v>
@@ -8526,19 +8526,19 @@
         <v>396082</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>370313</v>
+        <v>370960</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>420958</v>
+        <v>420450</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6240538271591828</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5834528777503158</v>
+        <v>0.584471704399239</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6632483587728604</v>
+        <v>0.6624467262372461</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>543</v>
@@ -8547,19 +8547,19 @@
         <v>565648</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>530078</v>
+        <v>530694</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>603868</v>
+        <v>603035</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4664470144681916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.437115440684731</v>
+        <v>0.4376232675124578</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4979643747630773</v>
+        <v>0.4972775515143728</v>
       </c>
     </row>
     <row r="21">
@@ -8651,19 +8651,19 @@
         <v>2930</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8319</v>
+        <v>7696</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005440456426320845</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001521271400925759</v>
+        <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01544428827213761</v>
+        <v>0.0142882452775827</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6734</v>
+        <v>5548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002317434131645948</v>
@@ -8684,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01399053274348966</v>
+        <v>0.01152560753709181</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -8693,19 +8693,19 @@
         <v>4046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1004</v>
+        <v>1107</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10046</v>
+        <v>9479</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003966674234647895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0009845100415814176</v>
+        <v>0.001084832687872193</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009848948486591664</v>
+        <v>0.009293188575078376</v>
       </c>
     </row>
     <row r="23">
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11454</v>
+        <v>10504</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005362489203645848</v>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02126463834898431</v>
+        <v>0.01950012809030921</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5628</v>
+        <v>5332</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.003389168169312847</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01169153521563555</v>
+        <v>0.01107804849365179</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -8764,19 +8764,19 @@
         <v>4520</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1037</v>
+        <v>1493</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12526</v>
+        <v>13848</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004431261333831244</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001016259246721298</v>
+        <v>0.001463471805483705</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01228096687408007</v>
+        <v>0.01357679200785009</v>
       </c>
     </row>
     <row r="24">
@@ -8793,19 +8793,19 @@
         <v>3201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9380</v>
+        <v>8971</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005943524187331471</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001796080071809534</v>
+        <v>0.001800663886301723</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0174147574516106</v>
+        <v>0.01665474073780839</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7747</v>
+        <v>8670</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.003191276181939628</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0160939917182465</v>
+        <v>0.01801154965993172</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -8835,19 +8835,19 @@
         <v>4738</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11105</v>
+        <v>11436</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0046447137035478</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001150745440225889</v>
+        <v>0.001144906104303641</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01088734930605453</v>
+        <v>0.01121155127151763</v>
       </c>
     </row>
     <row r="25">
@@ -8864,19 +8864,19 @@
         <v>242055</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>217166</v>
+        <v>220548</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>265824</v>
+        <v>265111</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4493761846904618</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4031703320065815</v>
+        <v>0.4094485184932156</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4935047107279988</v>
+        <v>0.4921800459946683</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6663</v>
+        <v>6048</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002503461869019279</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01384180060306594</v>
+        <v>0.01256483177099046</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>241</v>
@@ -8906,19 +8906,19 @@
         <v>243260</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>216091</v>
+        <v>216165</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>273478</v>
+        <v>271635</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2384929444517932</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.211856158623787</v>
+        <v>0.2119289128714125</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2681192421300647</v>
+        <v>0.2663124240944126</v>
       </c>
     </row>
     <row r="26">
@@ -8935,19 +8935,19 @@
         <v>25109</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16651</v>
+        <v>16548</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>36737</v>
+        <v>37049</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04661458803153624</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03091313699025386</v>
+        <v>0.03072190624331676</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06820189179044325</v>
+        <v>0.0687812950018639</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>128</v>
@@ -8956,19 +8956,19 @@
         <v>146654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>127465</v>
+        <v>126899</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169654</v>
+        <v>167492</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3046776559362704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2648121404877026</v>
+        <v>0.2636370858410196</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3524601566112641</v>
+        <v>0.3479704006544667</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>153</v>
@@ -8977,19 +8977,19 @@
         <v>171763</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>145530</v>
+        <v>148236</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>196486</v>
+        <v>197555</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1683968610735788</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1426778032821574</v>
+        <v>0.1453307248620973</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1926351923161677</v>
+        <v>0.193684112710437</v>
       </c>
     </row>
     <row r="27">
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5400</v>
+        <v>5642</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.001873079367849965</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01002559569183903</v>
+        <v>0.01047484835608745</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4626</v>
+        <v>5087</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0009891564382460724</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.004535278682838917</v>
+        <v>0.004987448058191293</v>
       </c>
     </row>
     <row r="28">
@@ -9069,19 +9069,19 @@
         <v>38436</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28673</v>
+        <v>27346</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51779</v>
+        <v>51533</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07135749042497805</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05323082889946192</v>
+        <v>0.05076776818861264</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09612747908064477</v>
+        <v>0.09567177232010082</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -9090,19 +9090,19 @@
         <v>14101</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7943</v>
+        <v>7688</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24292</v>
+        <v>23470</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02929497988455753</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01650180042357699</v>
+        <v>0.01597166454757734</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05046674419890605</v>
+        <v>0.04875857349608442</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>49</v>
@@ -9111,19 +9111,19 @@
         <v>52537</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39321</v>
+        <v>38762</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>69595</v>
+        <v>67153</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05150781497526093</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03855030036540661</v>
+        <v>0.03800244669720577</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06823124532987448</v>
+        <v>0.06583715901403998</v>
       </c>
     </row>
     <row r="29">
@@ -9140,19 +9140,19 @@
         <v>223017</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>200275</v>
+        <v>199985</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>248635</v>
+        <v>246428</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4140321876678759</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.371811577762823</v>
+        <v>0.3712738598340304</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4615927942186319</v>
+        <v>0.4574943785733877</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>313</v>
@@ -9161,19 +9161,19 @@
         <v>315098</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>292803</v>
+        <v>292756</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>336196</v>
+        <v>336791</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6546260238272543</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6083061683231734</v>
+        <v>0.6082089610217352</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6984566070330277</v>
+        <v>0.6996932923905739</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>518</v>
@@ -9182,19 +9182,19 @@
         <v>538116</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>508775</v>
+        <v>505376</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>571869</v>
+        <v>572381</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5275705737890941</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4988044087217916</v>
+        <v>0.4954720354527399</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5606622915845672</v>
+        <v>0.5611642644416996</v>
       </c>
     </row>
     <row r="30">
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5805</v>
+        <v>6579</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004013683170956473</v>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02010617361398001</v>
+        <v>0.02278739538700014</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6254</v>
+        <v>5785</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001940173861158326</v>
@@ -9332,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01047141214855972</v>
+        <v>0.009684962389331343</v>
       </c>
     </row>
     <row r="32">
@@ -9349,19 +9349,19 @@
         <v>3803</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10810</v>
+        <v>10309</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01232398553555705</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00351054474995278</v>
+        <v>0.003441854208430419</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03503297090344845</v>
+        <v>0.03341008484554767</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5242</v>
+        <v>5234</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003606701504626077</v>
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01815667722509138</v>
+        <v>0.01812984090237104</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -9391,19 +9391,19 @@
         <v>4844</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12125</v>
+        <v>12328</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008110138578355712</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001885693995336195</v>
+        <v>0.001916031894477935</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02030051216305305</v>
+        <v>0.02063977241822088</v>
       </c>
     </row>
     <row r="33">
@@ -9420,19 +9420,19 @@
         <v>3112</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>8172</v>
+        <v>8987</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01008556803147628</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002707073811710362</v>
+        <v>0.002731747964172124</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02648500175441596</v>
+        <v>0.0291243664078268</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -9457,16 +9457,16 @@
         <v>848</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>9354</v>
+        <v>8765</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.005210306423584781</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.001420444863843478</v>
+        <v>0.00142001361778603</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01566085818734924</v>
+        <v>0.01467564410444633</v>
       </c>
     </row>
     <row r="34">
@@ -9483,19 +9483,19 @@
         <v>121995</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>104021</v>
+        <v>104621</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>139617</v>
+        <v>141252</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3953708674865031</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3371200640593997</v>
+        <v>0.3390649058447857</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4524821350103649</v>
+        <v>0.4577806696559816</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -9517,19 +9517,19 @@
         <v>121995</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>105176</v>
+        <v>102045</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>143661</v>
+        <v>141231</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2042525878695282</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1760935600718925</v>
+        <v>0.170850461455709</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2405265631257114</v>
+        <v>0.2364593780695286</v>
       </c>
     </row>
     <row r="35">
@@ -9546,19 +9546,19 @@
         <v>13907</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7727</v>
+        <v>8255</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>21674</v>
+        <v>21962</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04507255632109192</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02504146561242287</v>
+        <v>0.02675263417274053</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0702442803526436</v>
+        <v>0.07117758085329544</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>66</v>
@@ -9567,19 +9567,19 @@
         <v>77601</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>61919</v>
+        <v>62266</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>95551</v>
+        <v>94378</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.268780650479205</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2144634746362557</v>
+        <v>0.2156646595372016</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3309510304799291</v>
+        <v>0.3268874113374914</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>81</v>
@@ -9588,19 +9588,19 @@
         <v>91509</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>73647</v>
+        <v>73602</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>110845</v>
+        <v>109729</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1532107870503713</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1233049974938764</v>
+        <v>0.1232293107402269</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1855840735702894</v>
+        <v>0.183715433144106</v>
       </c>
     </row>
     <row r="36">
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5134</v>
+        <v>6106</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.003478541551825073</v>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01778238405719157</v>
+        <v>0.02114943661661703</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5035</v>
+        <v>5420</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001681491813464646</v>
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.008429894609621269</v>
+        <v>0.009075067387942264</v>
       </c>
     </row>
     <row r="37">
@@ -9680,19 +9680,19 @@
         <v>22424</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14135</v>
+        <v>13870</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>34629</v>
+        <v>33278</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0726733037565991</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04580851323155544</v>
+        <v>0.04495168907367655</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.112227036504073</v>
+        <v>0.1078503229475344</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -9701,19 +9701,19 @@
         <v>14240</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8447</v>
+        <v>7782</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23592</v>
+        <v>23261</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04932246583002239</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02925836644429152</v>
+        <v>0.02695467727013973</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08171274735715719</v>
+        <v>0.08056848782756348</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -9722,19 +9722,19 @@
         <v>36664</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>26093</v>
+        <v>25884</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>51329</v>
+        <v>49892</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06138574481096055</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04368680490434953</v>
+        <v>0.04333624830429306</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08593810947489001</v>
+        <v>0.08353322347108966</v>
       </c>
     </row>
     <row r="38">
@@ -9751,19 +9751,19 @@
         <v>143317</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>125386</v>
+        <v>124662</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>162566</v>
+        <v>161589</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4644737188687725</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4063613410838313</v>
+        <v>0.4040158309945261</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.526858553986458</v>
+        <v>0.523689351220315</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>184</v>
@@ -9772,19 +9772,19 @@
         <v>193670</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>175036</v>
+        <v>174960</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>210650</v>
+        <v>209746</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.670797957463365</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6062567843099395</v>
+        <v>0.6059946521884634</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7296099006137805</v>
+        <v>0.7264770395788307</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>312</v>
@@ -9793,19 +9793,19 @@
         <v>336988</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>310591</v>
+        <v>313014</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>361881</v>
+        <v>361690</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5642087695925765</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5200141492547524</v>
+        <v>0.524070537239954</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6058867514907329</v>
+        <v>0.6055669477678064</v>
       </c>
     </row>
     <row r="39">
@@ -9897,19 +9897,19 @@
         <v>5362</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12008</v>
+        <v>12139</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002510340507033389</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0008591513004253361</v>
+        <v>0.000856748804862564</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.005622090704184357</v>
+        <v>0.005683503588637505</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -9918,19 +9918,19 @@
         <v>9241</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4749</v>
+        <v>4230</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>17726</v>
+        <v>16327</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004346642147025403</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002233759129714641</v>
+        <v>0.001989589308297022</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.008337794304257557</v>
+        <v>0.007679750114735689</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>14</v>
@@ -9939,19 +9939,19 @@
         <v>14603</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8286</v>
+        <v>8030</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>24374</v>
+        <v>24536</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003426358976507045</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001944167000485788</v>
+        <v>0.001884150043343427</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005719102115095109</v>
+        <v>0.005756939327148419</v>
       </c>
     </row>
     <row r="41">
@@ -9968,19 +9968,19 @@
         <v>17975</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10540</v>
+        <v>10028</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>29888</v>
+        <v>29279</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008415611367376631</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004934739724430999</v>
+        <v>0.004694884270912481</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01399322223182154</v>
+        <v>0.01370815605512298</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>22</v>
@@ -9989,19 +9989,19 @@
         <v>22685</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>15065</v>
+        <v>14531</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>34540</v>
+        <v>34093</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01067010389929116</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.007085952830641274</v>
+        <v>0.006835059085168434</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01624643680907296</v>
+        <v>0.01603633152333235</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -10010,19 +10010,19 @@
         <v>40660</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>28971</v>
+        <v>29104</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>55620</v>
+        <v>55507</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.009540239671108428</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006797598356459295</v>
+        <v>0.006828839039763896</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01305043571885933</v>
+        <v>0.01302407508600916</v>
       </c>
     </row>
     <row r="42">
@@ -10039,19 +10039,19 @@
         <v>17093</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10024</v>
+        <v>9948</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>26996</v>
+        <v>27145</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.008002603673570703</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.004692973305379445</v>
+        <v>0.0046575059947677</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01263908042242849</v>
+        <v>0.01270908662195433</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -10060,19 +10060,19 @@
         <v>5327</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>11555</v>
+        <v>12560</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.002505783973793172</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0008852973609741628</v>
+        <v>0.0008844182222193885</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.005435183042202646</v>
+        <v>0.005907878554152645</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>22</v>
@@ -10081,19 +10081,19 @@
         <v>22420</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>14756</v>
+        <v>14295</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>33519</v>
+        <v>33904</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.005260576841647405</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003462231975295914</v>
+        <v>0.003354071201438386</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.007864839010337906</v>
+        <v>0.007955005361018928</v>
       </c>
     </row>
     <row r="43">
@@ -10110,19 +10110,19 @@
         <v>968958</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>923852</v>
+        <v>921755</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1015042</v>
+        <v>1014426</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.453652117310567</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.432534068107824</v>
+        <v>0.4315524426470678</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4752278379430513</v>
+        <v>0.4749394484949034</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -10131,19 +10131,19 @@
         <v>3294</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>9191</v>
+        <v>8895</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.001549428901699919</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0004722413338481181</v>
+        <v>0.0004697914717061589</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.004323106990298298</v>
+        <v>0.004183895288544254</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>942</v>
@@ -10152,19 +10152,19 @@
         <v>972252</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>920786</v>
+        <v>922092</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1026897</v>
+        <v>1026694</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2281257638716968</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2160498250449721</v>
+        <v>0.2163562895199189</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2409474524150125</v>
+        <v>0.2408997817935955</v>
       </c>
     </row>
     <row r="44">
@@ -10181,19 +10181,19 @@
         <v>90942</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>75687</v>
+        <v>75505</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>111522</v>
+        <v>111793</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04257765625395199</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03543534919370715</v>
+        <v>0.03535025912049643</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05221302707720308</v>
+        <v>0.05234003885673474</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>492</v>
@@ -10202,19 +10202,19 @@
         <v>563357</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>522647</v>
+        <v>521491</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>603564</v>
+        <v>605884</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2649837311206547</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2458351097951967</v>
+        <v>0.2452915155841759</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2838954045207445</v>
+        <v>0.2849870115570843</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>586</v>
@@ -10223,19 +10223,19 @@
         <v>654299</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>605928</v>
+        <v>606060</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>699790</v>
+        <v>707162</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.153522431264841</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1421727789479955</v>
+        <v>0.1422037022451092</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1641962917584036</v>
+        <v>0.1659258802117675</v>
       </c>
     </row>
     <row r="45">
@@ -10252,19 +10252,19 @@
         <v>2795</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>7598</v>
+        <v>7642</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.001308608016022482</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.0004163467648547839</v>
+        <v>0.0004145366502343163</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.003557306786549807</v>
+        <v>0.003578059851259256</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>4</v>
@@ -10276,16 +10276,16 @@
         <v>1004</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>9846</v>
+        <v>9751</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.001844111686185928</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0004721787013776227</v>
+        <v>0.0004722363130871471</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.004631289175113167</v>
+        <v>0.004586460391989578</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>7</v>
@@ -10294,19 +10294,19 @@
         <v>6716</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2777</v>
+        <v>2864</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>12864</v>
+        <v>13376</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001575738013435532</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0006516290231937699</v>
+        <v>0.0006719079784756206</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.003018315685401975</v>
+        <v>0.003138559732228746</v>
       </c>
     </row>
     <row r="46">
@@ -10323,19 +10323,19 @@
         <v>338268</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>302537</v>
+        <v>303166</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>375392</v>
+        <v>374251</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.158372035490266</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1416436924291755</v>
+        <v>0.1419377731718116</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1757531583017513</v>
+        <v>0.1752187621149698</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>299</v>
@@ -10344,19 +10344,19 @@
         <v>308383</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>277615</v>
+        <v>277739</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>344869</v>
+        <v>343028</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1450524817732876</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1305803213908872</v>
+        <v>0.1306390322250353</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1622143861501308</v>
+        <v>0.1613486283615546</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>616</v>
@@ -10365,19 +10365,19 @@
         <v>646650</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>596098</v>
+        <v>604172</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>694450</v>
+        <v>703460</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1517277255663519</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.13986634132284</v>
+        <v>0.141760790534039</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1629433176771336</v>
+        <v>0.1650572319688442</v>
       </c>
     </row>
     <row r="47">
@@ -10394,19 +10394,19 @@
         <v>694513</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>650441</v>
+        <v>655463</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>741653</v>
+        <v>742435</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3251610273812119</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3045271500938945</v>
+        <v>0.3068785418900492</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3472313607313503</v>
+        <v>0.3475971936168376</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1178</v>
@@ -10415,19 +10415,19 @@
         <v>1209799</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1164237</v>
+        <v>1163118</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1256016</v>
+        <v>1255771</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.5690477164980621</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5476169446956851</v>
+        <v>0.547090607670274</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5907865304752113</v>
+        <v>0.5906713243923999</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1814</v>
@@ -10436,19 +10436,19 @@
         <v>1904313</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1836851</v>
+        <v>1840245</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1966410</v>
+        <v>1966983</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4468211657944119</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4309921296487657</v>
+        <v>0.4317885832958768</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4613914139891555</v>
+        <v>0.4615258600477311</v>
       </c>
     </row>
     <row r="48">
